--- a/src/main/java/Windchill/CustomActionsData.xlsx
+++ b/src/main/java/Windchill/CustomActionsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramisetti.nikhila\WindchillBedrock\src\main\java\Windchill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A70883-A3EF-4E40-96A4-B3AF06ED7C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623EF67-C58F-4834-95EC-B86828927DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Object Type</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
     <t>Action Model Name</t>
   </si>
   <si>
-    <t>Refresh View</t>
+    <t>Demo Custom Action</t>
+  </si>
+  <si>
+    <t>wtpart</t>
   </si>
 </sst>
 </file>
@@ -68,6 +68,7 @@
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <sz val="7"/>
       <color rgb="FF464646"/>
       <name val="Arial"/>
@@ -105,10 +106,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,45 +392,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="1"/>
     </row>
